--- a/xlsx/简单英语维基百科_intext.xlsx
+++ b/xlsx/简单英语维基百科_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡百科全書</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_简单英语维基百科</t>
+    <t>网络百科全书</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_简单英语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E5%8D%95%E8%8B%B1%E8%AF%AD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%8B%B1%E8%AF%AD</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%8B%B1%E8%AA%9E%E7%82%BA%E5%A4%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>以英語為外語</t>
+    <t>以英语为外语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英語維基百科</t>
+    <t>英语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
   </si>
   <si>
-    <t>學生</t>
+    <t>学生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
+    <t>儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Wikipedia_editions</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>宿霧語維基百科</t>
+    <t>宿雾语维基百科</t>
   </si>
   <si>
     <t>https://ceb.wikipedia.org/wiki/</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瑞典語維基百科</t>
+    <t>瑞典语维基百科</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>德語維基百科</t>
+    <t>德语维基百科</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>荷蘭語維基百科</t>
+    <t>荷兰语维基百科</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>俄語維基百科</t>
+    <t>俄语维基百科</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>意大利語維基百科</t>
+    <t>意大利语维基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語維基百科</t>
+    <t>瓦瑞瓦瑞语维基百科</t>
   </si>
   <si>
     <t>https://war.wikipedia.org/wiki/</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波蘭語維基百科</t>
+    <t>波兰语维基百科</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>日語維基百科</t>
+    <t>日语维基百科</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯語維基百科</t>
+    <t>波斯语维基百科</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>加泰羅尼亞語維基百科</t>
+    <t>加泰罗尼亚语维基百科</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>挪威語維基百科</t>
+    <t>挪威语维基百科</t>
   </si>
   <si>
     <t>https://no.wikipedia.org/wiki/</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E-%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞-克羅埃西亞語維基百科</t>
+    <t>塞尔维亚-克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://sh.wikipedia.org/wiki/</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>匈牙利語維基百科</t>
+    <t>匈牙利语维基百科</t>
   </si>
   <si>
     <t>https://hu.wikipedia.org/wiki/</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印尼語維基百科</t>
+    <t>印尼语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>韓語維基百科</t>
+    <t>韩语维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>捷克語維基百科</t>
+    <t>捷克语维基百科</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞語維基百科</t>
+    <t>塞尔维亚语维基百科</t>
   </si>
   <si>
     <t>https://sr.wikipedia.org/wiki/</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬來語維基百科</t>
+    <t>马来语维基百科</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>土耳其語維基百科</t>
+    <t>土耳其语维基百科</t>
   </si>
   <si>
     <t>https://tr.wikipedia.org/wiki/</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>巴斯克語維基百科</t>
+    <t>巴斯克语维基百科</t>
   </si>
   <si>
     <t>https://eu.wikipedia.org/wiki/</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>世界語維基百科</t>
+    <t>世界语维基百科</t>
   </si>
   <si>
     <t>https://eo.wikipedia.org/wiki/</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>保加利亞語維基百科</t>
+    <t>保加利亚语维基百科</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>亞美尼亞語維基百科</t>
+    <t>亚美尼亚语维基百科</t>
   </si>
   <si>
     <t>https://hy.wikipedia.org/wiki/</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>丹麥語維基百科</t>
+    <t>丹麦语维基百科</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>閩南語維基百科</t>
+    <t>闽南语维基百科</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛伐克語維基百科</t>
+    <t>斯洛伐克语维基百科</t>
   </si>
   <si>
     <t>https://sk.wikipedia.org/wiki/</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希伯來語維基百科</t>
+    <t>希伯来语维基百科</t>
   </si>
   <si>
     <t>https://he.wikipedia.org/wiki/</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>立陶宛語維基百科</t>
+    <t>立陶宛语维基百科</t>
   </si>
   <si>
     <t>https://lt.wikipedia.org/wiki/</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>克羅埃西亞語維基百科</t>
+    <t>克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://hr.wikipedia.org/wiki/</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>愛沙尼亞語維基百科</t>
+    <t>爱沙尼亚语维基百科</t>
   </si>
   <si>
     <t>https://et.wikipedia.org/wiki/</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛文尼亞語維基百科</t>
+    <t>斯洛文尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sl.wikipedia.org/wiki/</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>白俄羅斯語維基百科</t>
+    <t>白俄罗斯语维基百科</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希臘語維基百科</t>
+    <t>希腊语维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>新挪威語維基百科</t>
+    <t>新挪威语维基百科</t>
   </si>
   <si>
     <t>https://nn.wikipedia.org/wiki/</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿塞拜疆語維基百科</t>
+    <t>阿塞拜疆语维基百科</t>
   </si>
   <si>
     <t>https://az.wikipedia.org/wiki/</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏茲別克語維基百科</t>
+    <t>乌兹别克语维基百科</t>
   </si>
   <si>
     <t>https://uz.wikipedia.org/wiki/</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>拉丁語維基百科</t>
+    <t>拉丁语维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印地語維基百科</t>
+    <t>印地语维基百科</t>
   </si>
   <si>
     <t>https://hi.wikipedia.org/wiki/</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰語維基百科</t>
+    <t>泰语维基百科</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰米爾語維基百科</t>
+    <t>泰米尔语维基百科</t>
   </si>
   <si>
     <t>https://ta.wikipedia.org/wiki/</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬其頓語維基百科</t>
+    <t>马其顿语维基百科</t>
   </si>
   <si>
     <t>https://mk.wikipedia.org/wiki/</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿勒曼尼語維基百科</t>
+    <t>阿勒曼尼语维基百科</t>
   </si>
   <si>
     <t>https://als.wikipedia.org/wiki/</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>孟加拉語維基百科</t>
+    <t>孟加拉语维基百科</t>
   </si>
   <si>
     <t>https://bn.wikipedia.org/wiki/</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯尼亞語維基百科</t>
+    <t>波斯尼亚语维基百科</t>
   </si>
   <si>
     <t>https://bs.wikipedia.org/wiki/</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伊多語維基百科</t>
+    <t>伊多语维基百科</t>
   </si>
   <si>
     <t>https://io.wikipedia.org/wiki/</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>冰島語維基百科</t>
+    <t>冰岛语维基百科</t>
   </si>
   <si>
     <t>https://is.wikipedia.org/wiki/</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>盧森堡語維基百科</t>
+    <t>卢森堡语维基百科</t>
   </si>
   <si>
     <t>https://lb.wikipedia.org/wiki/</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語維基百科</t>
+    <t>阿尔巴尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sq.wikipedia.org/wiki/</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯瓦希里語維基百科</t>
+    <t>斯瓦希里语维基百科</t>
   </si>
   <si>
     <t>https://sw.wikipedia.org/wiki/</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔吉克語維基百科</t>
+    <t>塔吉克语维基百科</t>
   </si>
   <si>
     <t>https://tg.wikipedia.org/wiki/</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔塔爾語維基百科</t>
+    <t>塔塔尔语维基百科</t>
   </si>
   <si>
     <t>https://tt.wikipedia.org/wiki/</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>粵文維基百科</t>
+    <t>粤文维基百科</t>
   </si>
   <si>
     <t>https://zh-yue.wikipedia.org/wiki/</t>
